--- a/result/Правила безпеки систем газопостачання.xlsx
+++ b/result/Правила безпеки систем газопостачання.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>Вопрос</t>
   </si>
@@ -25,41 +25,198 @@
     <t>Правильний ответ</t>
   </si>
   <si>
-    <t>Робота установок, що використовують газ, без постійного перебування працівників, які експлуатують та обслуговують обладнання, допускається за умови:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">розміщення установок, що використовують газ, і допоміжного обладнання у відокремлених (які замикаються) приміщеннях, обладнаних охоронною і пожежною сигналізацією і аварійним вибухозахищеним освітленням із ввімкненням його поза приміщенням
-виведення сигналів про загазованість приміщення і спрацювання захистів на диспетчерський пункт або в приміщення з постійною присутністю обслуговуючого персоналу
-визначається проектом
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>розміщення установок, що використовують газ, і допоміжного обладнання у відокремлених (які замикаються) приміщеннях, обладнаних охоронною і пожежною сигналізацією і аварійним вибухозахищеним освітленням із ввімкненням його поза приміщенням</t>
-  </si>
-  <si>
-    <t>Відомості про заміну запірної арматури, кранів, компенсаторів, а також виконані роботи при капітальному або поточному ремонті, виконані аварійні роботи необхідно заносити:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">до виконавчої документації
-до експлуатаційного журналу
-у паспорт газопроводу
-</t>
-  </si>
-  <si>
-    <t>у паспорт газопроводу</t>
-  </si>
-  <si>
-    <t>Розмежування ділянок обслуговування (відповідальності) зовнішніх і внутрішніх газопроводів, а також газопроводів і установок всередині підприємства повинно бути оформлене:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Двостороннім актом з додаванням схеми граничних ділянок із зазначенням меж балансової належності
-Договором на обслуговування
-Визначається проектом
-</t>
-  </si>
-  <si>
-    <t>Двостороннім актом з додаванням схеми граничних ділянок із зазначенням меж балансової належності</t>
+    <t>Автомобільна газозаправна станція зріджених вуглеводневих газів (автогазозаправна станція) це:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комплекс, призначений для заправки газобалонних установок автомобілів зрідженими вуглеводневими газами
+Комплекс, призначений для заправки газобалонних установок автомобілів зрідженими вуглеводневими газами та стисненим газом
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Комплекс, призначений для заправки газобалонних установок автомобілів зрідженими вуглеводневими газами</t>
+  </si>
+  <si>
+    <t>Технічний огляд  ГРП, ШГРП, ГРУ здійснюється:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У головних ГРП із регулюючими клапанами нормально відкрито 'НВ' і нормально закрито 'НЗ' - цілодобовим наглядом
+У інших ГРП, ШГРП, ГРУ - не рідше ніж один раз на тиждень
+У ГРП із засобами телеметричного контролю або диспетчеризації - не рідше ніж один раз на місяць
+Термін встановлюється газорозподільчою організацією
+</t>
+  </si>
+  <si>
+    <t>У головних ГРП із регулюючими клапанами нормально відкрито 'НВ' і нормально закрито 'НЗ' - цілодобовим наглядом</t>
+  </si>
+  <si>
+    <t>Технічні смуги це:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Технічні смуги на поверхні землі вздовж траси газопроводу завширшки 2 м з обох сторін від зовнішньої стінки газопроводу в плані, в межах яких не допускається складання юридичними і фізичними особами матеріалів і обладнання, садіння дерев та влаштування будь-яких споруд і будівель (в тому числі тимчасових)
+Технічні смуги на поверхні землі вздовж траси газопроводу завширшки 3 м з обох сторін від зовнішньої стінки газопроводу в плані, в межах яких не допускається складання юридичними і фізичними особами матеріалів і обладнання, садіння дерев та влаштування будь-яких споруд і будівель (в тому числі тимчасових)
+Технічні смуги на поверхні землі вздовж траси газопроводу завширшки 2 м з обох сторін від вісі газопроводу в плані, в межах яких не допускається складання юридичними і фізичними особами матеріалів і обладнання, садіння дерев та влаштування будь-яких споруд і будівель (в тому числі тимчасових)
+</t>
+  </si>
+  <si>
+    <t>Технічні смуги на поверхні землі вздовж траси газопроводу завширшки 2 м з обох сторін від зовнішньої стінки газопроводу в плані, в межах яких не допускається складання юридичними і фізичними особами матеріалів і обладнання, садіння дерев та влаштування будь-яких споруд і будівель (в тому числі тимчасових)</t>
+  </si>
+  <si>
+    <t>Не допускається коливання тиску газу після регуляторів, що перевищує:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10% робочого тиску
+10% пробного тиску
+Встановлюється виробником газового обладнання
+</t>
+  </si>
+  <si>
+    <t>10% робочого тиску</t>
+  </si>
+  <si>
+    <t>Тривалість роботи в протигазі без перерви не повинна перевищувати:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 хвилин
+30 хвилин
+Тривалість роботи в протигазі без перерви встановлює керівник робіт
+</t>
+  </si>
+  <si>
+    <t>30 хвилин</t>
+  </si>
+  <si>
+    <t>Газонаповнювальна станція це:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комплекс, призначений для приймання, зберігання та відпускання зріджених вуглеводневих газів споживачам в автоцистернах та побутових балонах, заправлення паливних балонів зріджених вуглеводневих газів та стиснутого природнього газу автомобільного транспорту, ремонту та періодичного технічного опосвідчення газових балонів
+Комплекс, призначений для приймання, зберігання та відпускання зріджених вуглеводневих газів споживачам в автоцистернах та побутових балонах, заправлення паливних балонів зріджених вуглеводневих газів автомобільного транспорту, ремонту та періодичного технічного опосвідчення газових балонів
+Комплекс, призначений для приймання, зберігання та відпускання зріджених вуглеводневих газів споживачам в автоцистернах та побутових балонах, заправлення паливних балонів зріджених вуглеводневих газів автомобільного транспорту
+</t>
+  </si>
+  <si>
+    <t>Комплекс, призначений для приймання, зберігання та відпускання зріджених вуглеводневих газів споживачам в автоцистернах та побутових балонах, заправлення паливних балонів зріджених вуглеводневих газів автомобільного транспорту, ремонту та періодичного технічного опосвідчення газових балонів</t>
+  </si>
+  <si>
+    <t>Для систем газопостачання низького тиску до 300 даПа нижня межа спрацювання ЗЗК установлюється газорозподільним підприємством, але не менше ніж:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280 даПа
+70 даПа
+200 даПа
+</t>
+  </si>
+  <si>
+    <t>70 даПа</t>
+  </si>
+  <si>
+    <t>Запобіжно-скидний клапан це:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пристрій для автоматичного видалення в атмосферу надлишкового обсягу газу з газовикористовувальної установки при неприпустимому (за умовами експлуатації) підвищенні в них тиску газу
+Пристрій для автоматичного видалення в атмосферу надлишкового обсягу газу з резервуара або газопроводу при неприпустимому (за умовами експлуатації) підвищенні в них тиску газу
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Пристрій для автоматичного видалення в атмосферу надлишкового обсягу газу з резервуара або газопроводу при неприпустимому (за умовами експлуатації) підвищенні в них тиску газу</t>
+  </si>
+  <si>
+    <t>Які допустимі перепади тиску на газових фільтрах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 даПа
+Сітчастого та вісцинового - 500 даПа а волосяного - 1000 даПа
+Сітчастого та вісцинового - 1000 даПа а волосяного - 500 даПа
+</t>
+  </si>
+  <si>
+    <t>Сітчастого та вісцинового - 500 даПа а волосяного - 1000 даПа</t>
+  </si>
+  <si>
+    <t>Як визначається закінчення продування газопроводу і колектора?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закінчення продування визначають газоаналізатором або спалюванням проб: полум’я має бути рівномірним і блакитного кольору
+Лише спалюванням проб: полум’я має бути рівномірним і блакитного кольору
+Лише газоаналізатором (вміст газу не повинен перевищувати 20% НКМЗ)
+</t>
+  </si>
+  <si>
+    <t>Закінчення продування визначають газоаналізатором або спалюванням проб: полум’я має бути рівномірним і блакитного кольору</t>
+  </si>
+  <si>
+    <t>Забороняється прийняття в експлуатацію:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Незакінчених будівництвом об’єктів систем газопостачання
+Підземних сталевих газопроводів і резервуарів, не забезпечених ЕХЗ від корозії
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Все перелічене</t>
+  </si>
+  <si>
+    <t>Підключення новозбудованого газопроводу до існуючої розподільної газової мережі, продувка, пуск газу та проведення комплексного випробування (пусконалагоджувальних робіт) виконуються після:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контрольного опресування газопроводу
+Підписання акта приймання газообладнання для проведення комплексного випробування (пусконалагоджувальних робіт) за формою додатка Ю
+Забезпечення газопроводів ЕХЗ від корозії
+</t>
+  </si>
+  <si>
+    <t>Підписання акта приймання газообладнання для проведення комплексного випробування (пусконалагоджувальних робіт) за формою додатка Ю</t>
+  </si>
+  <si>
+    <t>Хто повинен забезпечити утримання систем газопостачання відповідно до вимог чинного законодавства України:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Власник (балансоутримувач та/або орендар (наймач)
+Газопостачальна організація
+Газорозподільча організація
+Спеціалізована організація
+</t>
+  </si>
+  <si>
+    <t>Власник (балансоутримувач та/або орендар (наймач)</t>
+  </si>
+  <si>
+    <t>Газорегуляторний пункт це:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комплекс обладнання для підтримання  тиску газу на заданому рівні, розташований в будівлях (окремо розташованих або прибудованих до інших будинків) та приміщеннях, вбудованих в будинки
+Комплекс обладнання для регулювання тиску газу, розташований в будівлях (окремо розташованих або прибудованих до інших будинків) та приміщеннях, вбудованих в будинки
+Комплекс обладнання для зниження тиску газу і підтримання його на заданому рівні, розташований в будівлях (окремо розташованих або прибудованих до інших будинків) та приміщеннях, вбудованих в будинки
+</t>
+  </si>
+  <si>
+    <t>Комплекс обладнання для зниження тиску газу і підтримання його на заданому рівні, розташований в будівлях (окремо розташованих або прибудованих до інших будинків) та приміщеннях, вбудованих в будинки</t>
+  </si>
+  <si>
+    <t>Індивідуальна газобалонна установка зріджених вуглеводневих газів це:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Установка газопостачання зріджених вуглеводневих газів, до складу якої входить не більше двох побутових балонів
+Установка газопостачання зріджених вуглеводневих газів, до складу якої входить не більше двох газових балонів
+Установка газопостачання зріджених вуглеводневих газів, до складу якої входить не більше одного газового балону
+</t>
+  </si>
+  <si>
+    <t>Установка газопостачання зріджених вуглеводневих газів, до складу якої входить не більше двох побутових балонів</t>
+  </si>
+  <si>
+    <t>Під час здійснення огляду (обходу) трас підземних газопроводів забороняється:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Опускатися у шахти, колектори, колодязі та інші підземні споруди
+Відкривати люки колодязів
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Опускатися у шахти, колектори, колодязі та інші підземні споруди</t>
   </si>
   <si>
     <t>Заміна прокладок фланцевих з’єднань на зовнішніх газопроводах допускається при тиску газу в газопроводі:</t>
@@ -74,113 +231,101 @@
     <t>40-200 даПа</t>
   </si>
   <si>
-    <t>Внутрішній газопровід це:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ділянка газопроводу від газопроводу-вводу (при установці вимикаючого пристрою всередині будинку) або від футляру в стіні будинку до місця підключення газового приладу, газовикористовуючої установки, теплового агрегату тощо
-ділянка газопроводу від газопроводу-вводу (при установці вимикаючого пристрою всередині будинку) або від ввідного газопроводу до місця підключення газового приладу, газовикористовуючої установки, теплового агрегату тощо
-Жодна відповідь не правильна
-</t>
-  </si>
-  <si>
-    <t>ділянка газопроводу від газопроводу-вводу (при установці вимикаючого пристрою всередині будинку) або від ввідного газопроводу до місця підключення газового приладу, газовикористовуючої установки, теплового агрегату тощо</t>
-  </si>
-  <si>
-    <t>Контролювання тиску газу в розподільних газопроводах здійснюється газорозподільним підприємством:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не рідше ніж один раз на місяць
-з періодичністю, що виключає можливість утворення 'рідинних пробок
-шляхом замірювання його величини в контрольних точках за потребою в години максимального споживання газу
-</t>
-  </si>
-  <si>
-    <t>шляхом замірювання його величини в контрольних точках за потребою в години максимального споживання газу</t>
-  </si>
-  <si>
-    <t>Підключення до газових мереж це:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Надання газопостачальним підприємством послуги замовнику щодо фізичного підключення об’єктів системи газопостачання та/або споживання замовника до газових мереж згідно з установленим порядком
-Надання газорозподільним підприємством послуги замовнику щодо фізичного підключення об’єктів системи газопостачання та/або споживання замовника до газових мереж згідно з установленим порядком
-Надання спеціалізованою організацією послуги замовнику щодо фізичного підключення об’єктів системи газопостачання та/або споживання замовника до газових мереж згідно з установленим порядком
-</t>
-  </si>
-  <si>
-    <t>Надання газорозподільним підприємством послуги замовнику щодо фізичного підключення об’єктів системи газопостачання та/або споживання замовника до газових мереж згідно з установленим порядком</t>
-  </si>
-  <si>
-    <t>Технічні огляди трас надземних газопроводів здійснюються не рідше ніж:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">один раз на 6 місяців
-один раз на 12 місяців
-після аварії
-за розпорядженням власника
-</t>
-  </si>
-  <si>
-    <t>один раз на 6 місяців</t>
-  </si>
-  <si>
-    <t>На запірній арматурі повинно бути зазначено:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Клеймо СТК
-Напрямок обертання при відкритті і перекритті арматури
+    <t>Ці Правила встановлюють вимоги безпеки до систем газопостачання для забезпечення споживачів природним газом з:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">З надлишковим тиском не більше 1,2 МПа
+З абсолютним тиском не більше 1,2 МПа
+З робочим тиском не більше 1,2 МПа
+З дозволеним тиском не більше 1,2 МПа
+</t>
+  </si>
+  <si>
+    <t>З надлишковим тиском не більше 1,2 МПа</t>
+  </si>
+  <si>
+    <t>Трубопровід безпеки –це:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Газопровід, призначений для запобігання попаданню в топку газу, який просочується при продуванні через негерметичність контрольного вимикаючого пристрою, а також через негерметичність головного та контрольного вимикаючих пристроїв при непрацюючому агрегаті, пуску та запалюванні пальників
+Трубопровід, призначений для скидання в атмосферу газу при спрацьовуванні захисних пристроїв із тим, щоб тиск газу в контрольованій точці не перевищував заданого
+Газопровід з надлишковим тиском понад 1,2 МПа
+</t>
+  </si>
+  <si>
+    <t>Газопровід, призначений для запобігання попаданню в топку газу, який просочується при продуванні через негерметичність контрольного вимикаючого пристрою, а також через негерметичність головного та контрольного вимикаючих пристроїв при непрацюючому агрегаті, пуску та запалюванні пальників</t>
+  </si>
+  <si>
+    <t>Газопровід-ввід це:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Газопровід від місця приєднання до розподільного газопроводу до запірного пристрою (включно) на вводі в будинок
+Ділянка газопроводу від вимикаючого пристрою, що на вводі в будинок до внутрішнього газопроводу
+Ділянка газопроводу від ввідного газопроводу до місця підключення газового приладу, газовикористовуючої установки, теплового агрегату тощо
+</t>
+  </si>
+  <si>
+    <t>Газопровід від місця приєднання до розподільного газопроводу до запірного пристрою (включно) на вводі в будинок</t>
+  </si>
+  <si>
+    <t>Якого кольору повинні бути стрілки, що вказують напрямок потоку газу?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Червоного
+Чорнрго
+Визначається проектом
+</t>
+  </si>
+  <si>
+    <t>Чорнрго</t>
+  </si>
+  <si>
+    <t>Газонебезпечні роботи це роботи:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Під час виконання яких є або може бути виділення в робочу зону вибухо- і пожежонебезпечної або шкідливої пари, газів та інших речовин, здатних викликати вибух
+З використанням паяльних ламп
 Все перелічене
 </t>
   </si>
   <si>
-    <t>Напрямок обертання при відкритті і перекритті арматури</t>
-  </si>
-  <si>
-    <t>Ці Правила встановлюють вимоги безпеки до:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">газопроводів та газового обладнання промислових і сільськогосподарських підприємств
-установок для отримання біогазів
-установки із зрідженими вуглеводневими газами з надлишковим тиском понад 1,2 МПа
-</t>
-  </si>
-  <si>
-    <t>газопроводів та газового обладнання промислових і сільськогосподарських підприємств</t>
-  </si>
-  <si>
-    <t>Регулювання обладнання ГРП, ШГРП, ГРУ і перевірку параметрів спрацьовування ЗСК і ЗЗК проводять:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не рідше ніж один раз на 6 місяців (зокрема перед початком опалювального сезону), а також після ремонту обладнання
-в залежності від технічного стану обладнання
-в залежності від погодних умов
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>не рідше ніж один раз на 6 місяців (зокрема перед початком опалювального сезону), а також після ремонту обладнання</t>
-  </si>
-  <si>
-    <t>Запобіжно-скидний клапан це:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пристрій для автоматичного видалення в атмосферу надлишкового обсягу газу з газовикористовувальної установки при неприпустимому (за умовами експлуатації) підвищенні в них тиску газу
-Пристрій для автоматичного видалення в атмосферу надлишкового обсягу газу з резервуара або газопроводу при неприпустимому (за умовами експлуатації) підвищенні в них тиску газу
+    <t>Під час виконання яких є або може бути виділення в робочу зону вибухо- і пожежонебезпечної або шкідливої пари, газів та інших речовин, здатних викликати вибух</t>
+  </si>
+  <si>
+    <t>На наявність газу підлягають перевірянню всі елементи стояків газопроводів-вводів, колодязі і контрольні трубки, а також колодязі, камери інших підземних комунікацій, підвали будинків, шахти, колектори, підземні переходи та інші підземні споруди, розташовані на відстані до:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 м із обох боків від осі газопроводу
+15 м із обох боків від осі газопроводу
+25 м із обох боків від осі газопроводу
+</t>
+  </si>
+  <si>
+    <t>15 м із обох боків від осі газопроводу</t>
+  </si>
+  <si>
+    <t>У кожному ГРП, ШГРП, ГРУ на видному місці необхідно розміщувати:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Схеми обладнання, режимні карти та інструкції з експлуатації обладнання
+Графік огляду
 Все перелічене
 </t>
   </si>
   <si>
-    <t>Пристрій для автоматичного видалення в атмосферу надлишкового обсягу газу з резервуара або газопроводу при неприпустимому (за умовами експлуатації) підвищенні в них тиску газу</t>
-  </si>
-  <si>
-    <t>Роботодавець повинен:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">створити для кожного працівника безпечні і нешкідливі умови праці шляхом належного облаштування робочих місць
-контролювати наявність у працівників спеціального одягу, спеціального взуття та інших ЗІЗ
-</t>
-  </si>
-  <si>
-    <t>створити для кожного працівника безпечні і нешкідливі умови праці шляхом належного облаштування робочих місць</t>
+    <t>Схеми обладнання, режимні карти та інструкції з експлуатації обладнання</t>
+  </si>
+  <si>
+    <t>Контролювання тиску газу в розподільних газопроводах здійснюється газорозподільним підприємством шляхом замірювання його величини в контрольних точках:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За потребою в години максимального споживання газу
+На початку опалювального сезону
+Раз на місяць
+</t>
+  </si>
+  <si>
+    <t>За потребою в години максимального споживання газу</t>
   </si>
   <si>
     <t>КПО підземних сталевих газопроводів необхідно здійснювати:</t>
@@ -192,192 +337,50 @@
 </t>
   </si>
   <si>
-    <t>Все перелічене</t>
-  </si>
-  <si>
-    <t>До приїзду аварійної бригади необхідно попередити мешканців навколишніх будинків та перехожих про загазованість та про неприпустимість користування:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Відкритим вогнем та електроприладами
-Засобами мобільного зв’язку
-Всім переліченим
-</t>
-  </si>
-  <si>
-    <t>Всім переліченим</t>
-  </si>
-  <si>
-    <t>Які відомості Суб’єкти господарювання до початку спорудження, монтажу і наладки об’єктів систем газопостачання повинні подати до центрального органу виконавчої влади, що реалізує державну політику з питань нагляду та контролю за додержанням законодавства про працю</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Назва і адреса об’єкта, його технічна характеристика та відомча належність
-Назва будівельно-монтажної організації, яка здійснює будівництво об’єкта системи газопостачання
+    <t>До підключення новозбудованих розподільних газопроводів до ГРП, ШГРП, вводів у кінці кожного газопроводу, що підключається, необхідно:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ставити заглушки
+Якщо в кінці газопроводу, що підключається, є запірний пристрій, після нього встановлюють інвентарну заглушку
 Все перелічене
 </t>
   </si>
   <si>
-    <t>Хто повинен забезпечити утримання систем газопостачання відповідно до вимог чинного законодавства України:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">власник (балансоутримувач та/або орендар (наймач)
-газопостачальна організація
-газорозподільча організація
-спеціалізована організація
-</t>
-  </si>
-  <si>
-    <t>власник (балансоутримувач та/або орендар (наймач)</t>
-  </si>
-  <si>
-    <t>Запобіжно-запірний клапан це:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пристрій для автоматичного припинення подачі газу до споживача при неприпустимому (за умовами експлуатації) підвищенні або зниженні тиску газу в контрольованій точці за регулятором тиску
-Пристрій для автоматичного припинення подачі газу до споживача при неприпустимому (за умовами експлуатації) підвищенні або зниженні тиску газу в контрольованій точці за та перед регулятором тиску
-Пристрій для автоматичного припинення подачі газу до споживача при неприпустимому (за умовами експлуатації) підвищенні або зниженні тиску газу в контрольованій точці  перед регулятором тиску
-</t>
-  </si>
-  <si>
-    <t>Пристрій для автоматичного припинення подачі газу до споживача при неприпустимому (за умовами експлуатації) підвищенні або зниженні тиску газу в контрольованій точці за регулятором тиску</t>
-  </si>
-  <si>
-    <t>Пуск газу в системи газопостачання виконується</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Газорозподільним підприємством до межі балансової належності після укладання договору на технічне обслуговування прийнятого в експлуатацію об’єкта та відповідних договорів з газотранспортними, газорозподільними і газопостачальними підприємствами
-Газопостачальним підприємством до межі балансової належності після укладання договору на технічне обслуговування прийнятого в експлуатацію об’єкта та відповідних договорів з газотранспортними, газорозподільними  підприємствами
-Газотранспортнимним підприємством до межі балансової належності після укладання договору на технічне обслуговування прийнятого в експлуатацію об’єкта та відповідних договорів з  газорозподільними і газопостачальними підприємствами
-</t>
-  </si>
-  <si>
-    <t>Трубопровід безпеки –це:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">газопровід, призначений для запобігання попаданню в топку газу, який просочується при продуванні через негерметичність контрольного вимикаючого пристрою, а також через негерметичність головного та контрольного вимикаючих пристроїв при непрацюючому агрегаті, пуску та запалюванні пальників
-трубопровід, призначений для скидання в атмосферу газу при спрацьовуванні захисних пристроїв із тим, щоб тиск газу в контрольованій точці не перевищував заданого
-газопровід з надлишковим тиском понад 1,2 МПа
-</t>
-  </si>
-  <si>
-    <t>газопровід, призначений для запобігання попаданню в топку газу, який просочується при продуванні через негерметичність контрольного вимикаючого пристрою, а також через негерметичність головного та контрольного вимикаючих пристроїв при непрацюючому агрегаті, пуску та запалюванні пальників</t>
-  </si>
-  <si>
-    <t>Охоронна зона газопроводу це територія в межах:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 м з обох боків від зовнішньої стінки газопроводу в плані
-50 м від газопроводу
-15 м, з обох боків від осі газопроводу
-</t>
-  </si>
-  <si>
-    <t>2 м з обох боків від зовнішньої стінки газопроводу в плані</t>
-  </si>
-  <si>
-    <t>Інвентарна заглушка це:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Від’ємна деталь (різьбова або фланцева), яка забезпечує герметичне закриття труби, отворів, штуцерів або бобишок; листова заглушка повинна мати хвостовик
-Не від’ємна деталь (різьбова або фланцева), яка забезпечує герметичне закриття труби, отворів, штуцерів або бобишок; листова заглушка повинна мати хвостовик
-Деталь запобіжно- скидного клапану
-</t>
-  </si>
-  <si>
-    <t>Не від’ємна деталь (різьбова або фланцева), яка забезпечує герметичне закриття труби, отворів, штуцерів або бобишок; листова заглушка повинна мати хвостовик</t>
-  </si>
-  <si>
-    <t>У кожному ГРП, ШГРП, ГРУ на видному місці необхідно розміщувати:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Схеми обладнання, режимні карти та інструкції з експлуатації обладнання
-Графік огляду
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Схеми обладнання, режимні карти та інструкції з експлуатації обладнання</t>
-  </si>
-  <si>
-    <t>Перед включенням у роботу установок сезонної дії, в тому числі опалювальних котлів, необхідно:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">забезпечити прочищення газоходів, перевірку справності газоходів і систем вентиляції
-котельнях необхідно перевірити газонепроникність огороджувальних конструкцій приміщень
-атестувати персонал
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>забезпечити прочищення газоходів, перевірку справності газоходів і систем вентиляції</t>
-  </si>
-  <si>
-    <t>Якого кольору повинні бути стрілки, що вказують напрямок потоку газу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Червоного
-Чорнрго
-Визначається проектом
-</t>
-  </si>
-  <si>
-    <t>Чорнрго</t>
-  </si>
-  <si>
-    <t>Що потрібно виконати на об’єктах систем газопостачання, що не введені в експлуатацію протягом 6 місяців з дня їх останнього випробовування:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">провести повторні випробовування на герметичність газопроводів
-повідомити про це орган виконавчої влади, що реалізує державну політику з питань нагляду та контролю за додержанням законодавства про працю
-уточнити проект газопроводу
-</t>
-  </si>
-  <si>
-    <t>провести повторні випробовування на герметичність газопроводів</t>
-  </si>
-  <si>
-    <t>Перед початком ремонтних робіт на сталевих підземних газопроводах, пов’язаних із роз’єднанням газопроводу (заміна запірної арматури, знімання і встановлення заглушок і прокладок, вирізання стиків), необхідно:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вимкнути засоби електрохімзахисту і встановити на роз’єднувальних ділянках газопроводу шунтувальні перемички з кабелю (сталь, алюміній) перерізом не менше ніж 25 мм²
-За неможливості встановлення шунтувальної перемички зазначені роботи необхідно проводити після продування газопроводу повітрям
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Які допустимі перепади тиску на газових фільтрах</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 даПа
-Сітчастого та вісцинового - 500 даПа а волосяного - 1000 даПа
-Сітчастого та вісцинового - 1000 даПа а волосяного - 500 даПа
-</t>
-  </si>
-  <si>
-    <t>Сітчастого та вісцинового - 500 даПа а волосяного - 1000 даПа</t>
-  </si>
-  <si>
-    <t>Спеціалізована організація це:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Організація, уповноважена Кабінетом Міністрів, яка здійснює нагляд за безпечною експлуатацією систем газопостачання
-Організація, основний вид діяльності якої становлять роботи, пов’язані з проектуванням, будівництвом, експлуатацією систем газопостачання, димовідведення та вентиляції, і яка має необхідні дозвільні документи на виконання цих видів робіт
-Організація, яка надає дозволи на роботи, пов’язані з проектуванням, будівництвом, експлуатацією систем газопостачання, димовідведення та вентиляції
-</t>
-  </si>
-  <si>
-    <t>Організація, основний вид діяльності якої становлять роботи, пов’язані з проектуванням, будівництвом, експлуатацією систем газопостачання, димовідведення та вентиляції, і яка має необхідні дозвільні документи на виконання цих видів робіт</t>
-  </si>
-  <si>
-    <t>В які терміни потрібно  обслуговувати запірну арматуру і компенсатори і за необхідності їх ремонтувати</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не рідше ніж один раз на рік
-Не рідше ніж двічі на рік
-Терміни встановлюються власником і погоджується з газорозподільчою організацією
-</t>
-  </si>
-  <si>
-    <t>Не рідше ніж один раз на рік</t>
+    <t>Запобіжно-скидні клапани настроюються на нижню межу спрацювання, що не перевищує:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25% максимального робочого тиску
+15% максимального робочого тиску
+10% максимального робочого тиску
+Встановлюється проектом
+</t>
+  </si>
+  <si>
+    <t>15% максимального робочого тиску</t>
+  </si>
+  <si>
+    <t>Ці Правила встановлюють вимоги безпеки до:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Газопроводів та газового обладнання промислових і сільськогосподарських підприємств
+Установок для отримання біогазів
+Установки із зрідженими вуглеводневими газами з надлишковим тиском понад 1,2 МПа
+</t>
+  </si>
+  <si>
+    <t>Газопроводів та газового обладнання промислових і сільськогосподарських підприємств</t>
+  </si>
+  <si>
+    <t>Перевірка наявності вологи і конденсату в розподільних газопроводах, їх видалення здійснюються:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Газорозподільним підприємством з періодичністю, що виключає можливість утворення 'рідинних пробок
+Газорозподільним підприємством на рідше як раз в рік
+Газорозподільним підприємством на рідше як раз в шість місяців
+</t>
+  </si>
+  <si>
+    <t>Газорозподільним підприємством з періодичністю, що виключає можливість утворення 'рідинних пробок</t>
   </si>
 </sst>
 </file>
@@ -899,158 +902,161 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
